--- a/EXPORT-venue-ratings.xlsx
+++ b/EXPORT-venue-ratings.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czump\Documents\GitHub\Csr_capstone\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0D8F2-BF56-4127-9433-503E4F36ECD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$248</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="250">
   <si>
     <t>Venue_id</t>
   </si>
@@ -46,9 +37,6 @@
     <t>4b48a6a8f964a520a35126e3</t>
   </si>
   <si>
-    <t>4b4a0b62f964a520e37826e3</t>
-  </si>
-  <si>
     <t>4b4b8a1df964a520969f26e3</t>
   </si>
   <si>
@@ -58,9 +46,6 @@
     <t>4b51cc0ef964a520e95527e3</t>
   </si>
   <si>
-    <t>4b531f36f964a520868f27e3</t>
-  </si>
-  <si>
     <t>4b53237ef964a520039027e3</t>
   </si>
   <si>
@@ -79,6 +64,9 @@
     <t>4b5b27bbf964a5201de728e3</t>
   </si>
   <si>
+    <t>4b5f4f9af964a5205bb329e3</t>
+  </si>
+  <si>
     <t>4b617d50f964a5205f152ae3</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>4b732948f964a520109f2de3</t>
   </si>
   <si>
-    <t>4b744f0af964a52031d42de3</t>
-  </si>
-  <si>
     <t>4b759cd6f964a5203d172ee3</t>
   </si>
   <si>
@@ -142,18 +127,21 @@
     <t>4b7da6d7f964a52056cc2fe3</t>
   </si>
   <si>
-    <t>4b803ce0f964a5209d5f30e3</t>
-  </si>
-  <si>
     <t>4b80facaf964a520149430e3</t>
   </si>
   <si>
     <t>4b82e5e0f964a520e8eb30e3</t>
   </si>
   <si>
+    <t>4b866711f964a520c38831e3</t>
+  </si>
+  <si>
     <t>4b898eb4f964a520834132e3</t>
   </si>
   <si>
+    <t>4b8d5696f964a52083f532e3</t>
+  </si>
+  <si>
     <t>4b8e862cf964a520ce2633e3</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>4b9f6c06f964a520ad2137e3</t>
   </si>
   <si>
-    <t>4ba1217ef964a520c99a37e3</t>
-  </si>
-  <si>
     <t>4ba387bcf964a520c64438e3</t>
   </si>
   <si>
@@ -187,6 +172,9 @@
     <t>4bab95d1f964a52064b63ae3</t>
   </si>
   <si>
+    <t>4bb08d29f964a5207c4b3ce3</t>
+  </si>
+  <si>
     <t>4bb354ae715eef3b782a86bb</t>
   </si>
   <si>
@@ -256,12 +244,12 @@
     <t>4bfd02ede529c928f839ba8c</t>
   </si>
   <si>
-    <t>4bfe2d4e83bbd13a9a2463c5</t>
-  </si>
-  <si>
     <t>4c028808f56c2d7fe5821b66</t>
   </si>
   <si>
+    <t>4c0a11cb32daef3b83934b50</t>
+  </si>
+  <si>
     <t>4c0e880c98102d7f8dd0e306</t>
   </si>
   <si>
@@ -277,6 +265,9 @@
     <t>4c3f152383a3a5932aeeee33</t>
   </si>
   <si>
+    <t>4c4211b4da3dc9289feac9b9</t>
+  </si>
+  <si>
     <t>4c42149eff711b8d09fa1205</t>
   </si>
   <si>
@@ -304,6 +295,9 @@
     <t>4c61b2e9de1b2d7f9183e070</t>
   </si>
   <si>
+    <t>4c6d0b46f2846dcb2f6e64e9</t>
+  </si>
+  <si>
     <t>4c78bdb093ef236a7e67ad0f</t>
   </si>
   <si>
@@ -376,6 +370,9 @@
     <t>4d1e4ae216cfb60ca15a4761</t>
   </si>
   <si>
+    <t>4d32ecb98250f04d9440f8e0</t>
+  </si>
+  <si>
     <t>4d3b3bc6fa736ea8971d1e8a</t>
   </si>
   <si>
@@ -400,12 +397,18 @@
     <t>4d58294792326ea846cb62c0</t>
   </si>
   <si>
+    <t>4d74ba879d2fa1431d51f5d6</t>
+  </si>
+  <si>
     <t>4d8251b659d16dcbc58f0b1c</t>
   </si>
   <si>
     <t>4d848c029324236ae649bb0e</t>
   </si>
   <si>
+    <t>4d90d6ebc479a35d35d27a97</t>
+  </si>
+  <si>
     <t>4d94e8e2cf46224b42c79f94</t>
   </si>
   <si>
@@ -427,15 +430,15 @@
     <t>4dc50ba4d4c0ad9c0f7da68d</t>
   </si>
   <si>
-    <t>4de679d6fa764cf4bee0667b</t>
-  </si>
-  <si>
     <t>4de6826a52b16c61fe4dafe7</t>
   </si>
   <si>
     <t>4def12e2e4cdcd6c3f217e3f</t>
   </si>
   <si>
+    <t>4dfc92a9b0fb84d7ace08491</t>
+  </si>
+  <si>
     <t>4e15991b7d8b7c3377036b4f</t>
   </si>
   <si>
@@ -466,9 +469,6 @@
     <t>4e7f097c61af5464233e7c2d</t>
   </si>
   <si>
-    <t>4eab40425c5cf8848a9dfa49</t>
-  </si>
-  <si>
     <t>4eb39d3b9a52ad1e3e239250</t>
   </si>
   <si>
@@ -499,12 +499,6 @@
     <t>4f128b81e4b0725fed0f8f8f</t>
   </si>
   <si>
-    <t>4f19b744e4b0918828cfe8cb</t>
-  </si>
-  <si>
-    <t>4f229a62e4b01dc949a87bf9</t>
-  </si>
-  <si>
     <t>4f41fd58e4b0c80f8542bb16</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>4f5e1896e4b086681d7e51b6</t>
   </si>
   <si>
-    <t>4f5f802be4b03afb29e171ec</t>
-  </si>
-  <si>
     <t>4f9c2ee6e4b08ea03948018e</t>
   </si>
   <si>
@@ -547,7 +538,10 @@
     <t>50630b80e4b03c13c24db8fe</t>
   </si>
   <si>
-    <t>50d2279be4b04d6ae5235974</t>
+    <t>508f6d2be4b06dbf5eddff7f</t>
+  </si>
+  <si>
+    <t>50ab6d21e4b03f0deadc8844</t>
   </si>
   <si>
     <t>50e099dee4b0f2167da5a2e3</t>
@@ -577,9 +571,6 @@
     <t>52374de9498e0ab4e4221972</t>
   </si>
   <si>
-    <t>526546fa11d282d5627a631d</t>
-  </si>
-  <si>
     <t>527f909c11d281649ade499d</t>
   </si>
   <si>
@@ -592,15 +583,9 @@
     <t>529f1c17498eb3df2fc43622</t>
   </si>
   <si>
-    <t>52c0456a498e0a4451e585a5</t>
-  </si>
-  <si>
     <t>52e96f1511d2c981acb41845</t>
   </si>
   <si>
-    <t>5315c57c498ed34a02cade49</t>
-  </si>
-  <si>
     <t>533c237811d23b1e684509d1</t>
   </si>
   <si>
@@ -610,6 +595,9 @@
     <t>53467e5c498e2a27d2dbdf2b</t>
   </si>
   <si>
+    <t>5371fda0498eccbe3c0b055b</t>
+  </si>
+  <si>
     <t>537b27d2498e4d1d84f365c6</t>
   </si>
   <si>
@@ -619,9 +607,15 @@
     <t>53e8a32d498e63999fa1acee</t>
   </si>
   <si>
+    <t>53f1d5ad498e57f6ca62b7c5</t>
+  </si>
+  <si>
     <t>541ac49b498e50aff8f17738</t>
   </si>
   <si>
+    <t>5445277d498e32a2f1c35638</t>
+  </si>
+  <si>
     <t>545b9000498e6e76920bd066</t>
   </si>
   <si>
@@ -637,6 +631,9 @@
     <t>54919f27498ebedb2c71ad0c</t>
   </si>
   <si>
+    <t>5491d585498e87dd3e4d7a04</t>
+  </si>
+  <si>
     <t>549edd85498eafa422632165</t>
   </si>
   <si>
@@ -655,21 +652,12 @@
     <t>550f017f498ec5fc2904c0d2</t>
   </si>
   <si>
-    <t>5515b2c3498ec1fbae77edcc</t>
-  </si>
-  <si>
     <t>5536922e498efb6c9c70bc60</t>
   </si>
   <si>
     <t>55bf480d498e6bfc73c9793a</t>
   </si>
   <si>
-    <t>56015965498e5874ce282d50</t>
-  </si>
-  <si>
-    <t>560d10ce498ecc1550b825ec</t>
-  </si>
-  <si>
     <t>561d3a32498e8d22e5b6954f</t>
   </si>
   <si>
@@ -685,6 +673,9 @@
     <t>56bdde5e498e098e1294c594</t>
   </si>
   <si>
+    <t>57068338498ea0a85056ff02</t>
+  </si>
+  <si>
     <t>5714b8cb498ecf6b92fe0708</t>
   </si>
   <si>
@@ -697,18 +688,12 @@
     <t>5752c1b7498e15594ccc61d2</t>
   </si>
   <si>
-    <t>57a9b6a2498eae087b1a8981</t>
-  </si>
-  <si>
     <t>57d6d424498ee4d362bc612c</t>
   </si>
   <si>
     <t>588c8c5065be58175b3f71d7</t>
   </si>
   <si>
-    <t>58a8b7940b7e9337e54da74a</t>
-  </si>
-  <si>
     <t>58ac49292b04f835d41bd2bf</t>
   </si>
   <si>
@@ -730,6 +715,9 @@
     <t>5924978f8173cb087c0b283d</t>
   </si>
   <si>
+    <t>592f18d34420d879ced4fb51</t>
+  </si>
+  <si>
     <t>593b9707ad1ea4585d32c1d4</t>
   </si>
   <si>
@@ -745,6 +733,12 @@
     <t>59fdc50c805e3f6b29667498</t>
   </si>
   <si>
+    <t>5a148848dd12f81134120047</t>
+  </si>
+  <si>
+    <t>5a1853ac1ffed7595ef2be97</t>
+  </si>
+  <si>
     <t>5a1c0d223c858d332c531795</t>
   </si>
   <si>
@@ -766,20 +760,17 @@
     <t>5baa40a718d43b0039472ab4</t>
   </si>
   <si>
-    <t>5bca046f67f62b002cc8d880</t>
-  </si>
-  <si>
     <t>5bef28ee3e6741002ccdaf72</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>5d8fa18f6df13b0008a14b41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,23 +829,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,27 +911,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,24 +945,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1173,17 +1120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,18 +1135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1213,7 +1154,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1224,7 +1165,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1235,7 +1176,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1246,29 +1187,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1276,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1287,2635 +1225,2617 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>7.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>6.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>7.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>7.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>5.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>7.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>7.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>7.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>6.9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>6.6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>7.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>8.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>6.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>4.8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>6.9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>6.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>6.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>6.9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>7.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C63">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C67">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C69">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C71">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C72">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C73">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C74">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C75">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C76">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C77">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C78">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C81">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C82">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C84">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C87">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C88">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C93">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C95">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C103">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C104">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C105">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C106">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C107">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C109">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C110">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C112">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C116">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C117">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C119">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C120">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C121">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C122">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C123">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C125">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C128">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
-      </c>
-      <c r="C131">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
-      </c>
-      <c r="C136" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C138">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C141">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="C142">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="C143">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C144">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C145">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C146">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C149">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
-      </c>
-      <c r="C152">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
-      </c>
-      <c r="C153" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="C153">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C154">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C156">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C159">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C160">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
-      </c>
-      <c r="C161" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C162">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
-      </c>
-      <c r="C163" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C163">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
-      </c>
-      <c r="C164" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
-      </c>
-      <c r="C165">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C166">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C167">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
-      </c>
-      <c r="C168">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
-      </c>
-      <c r="C170">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C171">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
-      </c>
-      <c r="C172" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C173">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="C175">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
-      </c>
-      <c r="C177">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C178">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C179">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C180">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
-      </c>
-      <c r="C181" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C181">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C182">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C183">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C184">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
-      </c>
-      <c r="C185">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
-      </c>
-      <c r="C186">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
-      </c>
-      <c r="C187" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
-      </c>
-      <c r="C188" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
-      </c>
-      <c r="C189" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C190">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
-      </c>
-      <c r="C191" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C193">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C194">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C195">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
-      </c>
-      <c r="C196">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C197">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C198">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
-      </c>
-      <c r="C199" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C200">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
-      </c>
-      <c r="C201">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
-      </c>
-      <c r="C202">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="C203">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
-      </c>
-      <c r="C204">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C205">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C206">
         <v>6.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C207">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C208">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
-      </c>
-      <c r="C209" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="C209">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C210">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C211">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C212">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C213">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C214">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C216">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C217">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C218">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C219">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C221">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C222">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C223">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
-      </c>
-      <c r="C224" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="C224">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
-      </c>
-      <c r="C225" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="C225">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C226">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
-      </c>
-      <c r="C227" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C228">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C230">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C231">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C232">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
-      </c>
-      <c r="C233" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="C233">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C234">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
-      </c>
-      <c r="C235" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="C235">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
-      </c>
-      <c r="C236">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
-      </c>
-      <c r="C237" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="C237">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
-      </c>
-      <c r="C238" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="C238">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C239">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C240">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
-      </c>
-      <c r="C241" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C242">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
-      </c>
-      <c r="C243" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
-      </c>
-      <c r="C244">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C245">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C246">
         <v>7.9</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
-      </c>
-      <c r="C247" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="C247">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>232</v>
+      </c>
+      <c r="C249">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="C248">
+      <c r="B250" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>235</v>
+      </c>
+      <c r="C252">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>238</v>
+      </c>
+      <c r="C255">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>241</v>
+      </c>
+      <c r="C258">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>243</v>
+      </c>
+      <c r="C260">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>245</v>
+      </c>
+      <c r="C262">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>246</v>
+      </c>
+      <c r="C263">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>246</v>
+      </c>
+      <c r="C264">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>247</v>
+      </c>
+      <c r="C265">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C266">
         <v>6.1</v>
       </c>
     </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C248" xr:uid="{7C9332FD-1DF9-434B-A649-EB61ED54DF62}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="n/a"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>